--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2327244.310255179</v>
+        <v>2324992.230543972</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>110.1842403900299</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>286.4654361897219</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.503291459618692</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>49.68400593664609</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>286.4654361897232</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>36.95558184798627</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>209.1475554874954</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>72.89839816356351</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>187.4846089348158</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>97.18111948505775</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>81.26439500202892</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>214.4381565326525</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217515</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503919</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888116</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459361</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703257</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1921.870414581993</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1552.907897641581</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D2" t="n">
-        <v>1194.642199034831</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="E2" t="n">
-        <v>808.8539464365867</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>397.8680416469792</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3072.075344883006</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2698.609586621927</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2308.470254646115</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>532.8809675997582</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C4" t="n">
-        <v>532.8809675997582</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D4" t="n">
-        <v>532.8809675997582</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E4" t="n">
-        <v>532.8809675997582</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
-        <v>385.9910201018478</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>218.2881834765667</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>72.07099669442451</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610489</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>935.322011573528</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="X4" t="n">
-        <v>935.322011573528</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="Y4" t="n">
-        <v>714.5294324299979</v>
+        <v>830.0383715796588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1921.870414581995</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C5" t="n">
-        <v>1552.907897641583</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.642199034832</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>808.8539464365881</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>397.8680416469805</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883008</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883008</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2698.609586621928</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2308.470254646116</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.3613929424835</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1626.203933787945</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.101066913588</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.416578707701</v>
+        <v>1061.273978748255</v>
       </c>
       <c r="W7" t="n">
-        <v>792.9994086707405</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="X7" t="n">
-        <v>565.0098577727232</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.0098577727232</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1032.061124352531</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>663.098607412119</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>304.8329088053685</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>304.8329088053685</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>297.887408056165</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.9911633238872</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.209300611696</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1653.523416438522</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1653.523416438522</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1653.523416438522</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1398.838928232635</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>1109.421758195675</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>881.4322072976571</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y10" t="n">
-        <v>660.639628154127</v>
+        <v>663.3057344816946</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745237</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703059</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,25 +5650,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5729,40 +5729,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5893,19 +5893,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6309,10 +6309,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400703</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121634</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121634</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121634</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121634</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,16 +7011,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7078,16 +7078,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7169,19 +7169,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7409,22 +7409,22 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.7605018907561</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823598</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229358</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.2291039219422</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.844576940156</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.19973830615865</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194312</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25795,10 +25795,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="12">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675042</v>
@@ -26341,7 +26341,7 @@
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
@@ -26353,7 +26353,7 @@
         <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26445,13 +26445,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="N4" t="n">
         <v>10557.08828678123</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-910641.4819489061</v>
+        <v>-910641.481948906</v>
       </c>
       <c r="C6" t="n">
-        <v>418103.2637786865</v>
+        <v>418103.2637786866</v>
       </c>
       <c r="D6" t="n">
-        <v>418103.2637786868</v>
+        <v>418103.2637786866</v>
       </c>
       <c r="E6" t="n">
-        <v>168267.8698494608</v>
+        <v>168233.1319240252</v>
       </c>
       <c r="F6" t="n">
-        <v>493680.3316568161</v>
+        <v>493645.5937313804</v>
       </c>
       <c r="G6" t="n">
-        <v>493680.3316568158</v>
+        <v>493645.5937313802</v>
       </c>
       <c r="H6" t="n">
-        <v>493680.3316568159</v>
+        <v>493645.5937313801</v>
       </c>
       <c r="I6" t="n">
-        <v>493680.3316568159</v>
+        <v>493645.5937313802</v>
       </c>
       <c r="J6" t="n">
-        <v>276149.1292595385</v>
+        <v>276114.3913341028</v>
       </c>
       <c r="K6" t="n">
-        <v>493680.3316568159</v>
+        <v>493645.5937313802</v>
       </c>
       <c r="L6" t="n">
-        <v>493680.3316568161</v>
+        <v>493645.5937313803</v>
       </c>
       <c r="M6" t="n">
-        <v>408625.3037213041</v>
+        <v>408590.5657958684</v>
       </c>
       <c r="N6" t="n">
-        <v>493680.3316568159</v>
+        <v>493645.5937313802</v>
       </c>
       <c r="O6" t="n">
-        <v>493680.3316568159</v>
+        <v>493645.5937313802</v>
       </c>
       <c r="P6" t="n">
-        <v>493680.331656816</v>
+        <v>493645.59373138</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>271.7461296822319</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>124.4562894637316</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>90.8491289502194</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>236.8389923999449</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>124.4562894637303</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2823568080673</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>10.4013937886738</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>179.2392451602645</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>223.4371167186376</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>272.5499811934113</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>7.66775766801841</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>4.146496819442291</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.241697906780928e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>295.3955842839429</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,13 +33029,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33500,22 +33500,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34211,19 +34211,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34451,25 +34451,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998936</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36768,7 +36768,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060454</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
